--- a/medicine/Sexualité et sexologie/99_(position_sexuelle)/99_(position_sexuelle).xlsx
+++ b/medicine/Sexualité et sexologie/99_(position_sexuelle)/99_(position_sexuelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La position 99 ou position en cuillères est une position sexuelle où l'un des deux partenaires est derrière l'autre, son abdomen contre le dos de l'autre. Cette position peut donner lieu à une pénétration vaginale ou anale avec le pénis, les doigts ou un objet (un godemichet par exemple).
 Le nombre 99 en lui-même est une représentation figurative de cette position. En effet, si l'on considère les boucles de ces deux chiffres comme étant les têtes des partenaires, le nombre 99 représente deux partenaires l'un derrière l'autre.
 Elle est aussi nommée « position en cuillères », par allusion à l'emboîtement de cuillères rangées, lorsque les deux partenaires sont couchés sur le côté.
-Cette position est notamment conseillée pour les personnes ayant des contraintes physiques limitant les positions, comme les femmes enceintes ou les personnes obèses. Elle pourrait également retarder l'éjaculation pour des hommes sujets à l'éjaculation précoce[1].
+Cette position est notamment conseillée pour les personnes ayant des contraintes physiques limitant les positions, comme les femmes enceintes ou les personnes obèses. Elle pourrait également retarder l'éjaculation pour des hommes sujets à l'éjaculation précoce.
 </t>
         </is>
       </c>
